--- a/artfynd/A 41854-2022.xlsx
+++ b/artfynd/A 41854-2022.xlsx
@@ -803,10 +803,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104155580</v>
+        <v>104207630</v>
       </c>
       <c r="B3" t="n">
-        <v>89545</v>
+        <v>90699</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -819,24 +819,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1503</v>
+        <v>232140</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Niemelä &amp; Kinnunen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -846,17 +850,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ringbo, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>392056.0855057952</v>
+        <v>391110.9281297976</v>
       </c>
       <c r="R3" t="n">
-        <v>6853010.695967026</v>
+        <v>6854649.349981912</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -880,27 +884,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Växer under grov tallåga i fin naturskog</t>
+          <t>Växer på undersidan av bränd stubbe</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,8 +913,39 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Brandpräglad sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Kolad tallstubbe</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Kolad tallstubbe</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -927,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104187958</v>
+        <v>104472909</v>
       </c>
       <c r="B4" t="n">
-        <v>88476</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,48 +974,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Storhömyrtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>392037.6485113045</v>
+        <v>391623.6282373069</v>
       </c>
       <c r="R4" t="n">
-        <v>6853358.163590304</v>
+        <v>6854337.890586959</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,27 +1035,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av bränd stubbe</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,50 +1063,25 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Gles sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson, Lennart Bratt</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104187536</v>
+        <v>104189015</v>
       </c>
       <c r="B5" t="n">
-        <v>56278</v>
+        <v>56540</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1093,26 +1094,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100011</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kungsörn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Aquila chrysaetos</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1123,7 +1124,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>förbiflygande</t>
+          <t>upprörd, varnande</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1133,10 +1134,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>391981.3108792182</v>
+        <v>391526.3548266431</v>
       </c>
       <c r="R5" t="n">
-        <v>6853630.610055518</v>
+        <v>6854288.457013912</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1163,22 +1164,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1215,10 +1216,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104187826</v>
+        <v>104216180</v>
       </c>
       <c r="B6" t="n">
-        <v>90657</v>
+        <v>89356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1227,32 +1228,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4365</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -1262,17 +1259,17 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>392042.9990587999</v>
+        <v>391787.8132853629</v>
       </c>
       <c r="R6" t="n">
-        <v>6853332.441080549</v>
+        <v>6853985.908340354</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1296,22 +1293,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1320,34 +1317,8 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Gles sandtallskog med grov död ved</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1364,10 +1335,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104187843</v>
+        <v>104215935</v>
       </c>
       <c r="B7" t="n">
-        <v>88476</v>
+        <v>77258</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1380,44 +1351,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1962</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Stenlandet O, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>392042.9990587999</v>
+        <v>391854.3030303118</v>
       </c>
       <c r="R7" t="n">
-        <v>6853332.441080549</v>
+        <v>6854020.712626761</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1441,27 +1406,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av grov bränd tallåga tillsammans med Spadskinn, Smalfotad taggsvamp, Spindelgröppa</t>
+          <t>15:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1470,54 +1430,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Gles sandtallskog med grov död ved</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104187798</v>
+        <v>104472901</v>
       </c>
       <c r="B8" t="n">
-        <v>90634</v>
+        <v>77177</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1526,52 +1460,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6055</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Storhömyrtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>392042.9990587999</v>
+        <v>391623.3432130276</v>
       </c>
       <c r="R8" t="n">
-        <v>6853332.441080549</v>
+        <v>6854283.967131451</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1595,27 +1521,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av grov bränd låga. På samma låga Vaddporing, Smalfotad taggsvamp, Spindelgröppa</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1628,40 +1549,25 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson, Lennart Bratt</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104192252</v>
+        <v>104472899</v>
       </c>
       <c r="B9" t="n">
-        <v>90653</v>
+        <v>90657</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1670,52 +1576,44 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(P.Karst) P.Karst</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Foskan , Dlr</t>
+          <t>Storhömyrtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>392016.9381021889</v>
+        <v>391623.3432130276</v>
       </c>
       <c r="R9" t="n">
-        <v>6853573.177739473</v>
+        <v>6854283.967131451</v>
       </c>
       <c r="S9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1739,22 +1637,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1763,25 +1661,26 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson, Lennart Bratt</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104207630</v>
+        <v>104472889</v>
       </c>
       <c r="B10" t="n">
         <v>90699</v>
@@ -1814,31 +1713,23 @@
           <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Storhömyrtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>391110.9281297976</v>
+        <v>391623.3432130276</v>
       </c>
       <c r="R10" t="n">
-        <v>6854649.349981912</v>
+        <v>6854283.967131451</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1862,27 +1753,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av bränd stubbe</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1895,55 +1781,25 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Brandpräglad sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Kolad tallstubbe</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Kolad tallstubbe</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>John-Olof Halvarsson, Lennart Bratt</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104207084</v>
+        <v>104259849</v>
       </c>
       <c r="B11" t="n">
-        <v>89659</v>
+        <v>73693</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1952,48 +1808,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>71</v>
+        <v>6440</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>392141.4986710215</v>
+        <v>391710.483187682</v>
       </c>
       <c r="R11" t="n">
-        <v>6853510.577731797</v>
+        <v>6853638.214409604</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2017,22 +1867,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2041,59 +1891,28 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Fuktig orörd skogsmiljö nära rinnande vatten och myrkant</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Växer resupinat om ca 45-50 cm på undersidan av tallågan</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Växer resupinat om ca 45-50 cm på undersidan av tallågan</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104207790</v>
+        <v>104200957</v>
       </c>
       <c r="B12" t="n">
-        <v>89317</v>
+        <v>56411</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2106,44 +1925,49 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3242</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>391976.3500389844</v>
+        <v>391936.8088922852</v>
       </c>
       <c r="R12" t="n">
-        <v>6853548.431869376</v>
+        <v>6853511.823290809</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2172,7 +1996,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2182,12 +2006,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Växer på undersida av tallåga som vilar på sten.</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2196,34 +2015,8 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2240,10 +2033,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104189115</v>
+        <v>104191186</v>
       </c>
       <c r="B13" t="n">
-        <v>90653</v>
+        <v>88476</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2252,32 +2045,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2287,17 +2076,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>392057.5668392346</v>
+        <v>391933.3680028348</v>
       </c>
       <c r="R13" t="n">
-        <v>6853373.625348783</v>
+        <v>6853477.861368546</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2321,22 +2110,27 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:11</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av bränd stubbe.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2345,19 +2139,8 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Gles sandtallskog</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2374,10 +2157,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104192418</v>
+        <v>104232378</v>
       </c>
       <c r="B14" t="n">
-        <v>88476</v>
+        <v>78098</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2390,44 +2173,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1962</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Stenlandet O, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>392087.7206966005</v>
+        <v>391920.0297059587</v>
       </c>
       <c r="R14" t="n">
-        <v>6853593.660263402</v>
+        <v>6853505.727836582</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2451,22 +2230,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2475,28 +2254,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Lars-Erik Nilsson, Cecilia Rastad</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104189175</v>
+        <v>104259774</v>
       </c>
       <c r="B15" t="n">
-        <v>89356</v>
+        <v>88476</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2505,52 +2285,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>391918.3253371663</v>
+        <v>391843.2893125196</v>
       </c>
       <c r="R15" t="n">
-        <v>6853376.59570605</v>
+        <v>6853566.826107106</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2574,22 +2346,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2598,34 +2370,8 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Gles sandtallskog med död bränd ved</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2642,10 +2388,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104207410</v>
+        <v>104259656</v>
       </c>
       <c r="B16" t="n">
-        <v>8377</v>
+        <v>88476</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2654,50 +2400,48 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>392306.6062552052</v>
+        <v>391837.9406872072</v>
       </c>
       <c r="R16" t="n">
-        <v>6853365.787757014</v>
+        <v>6853592.547251418</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2721,22 +2465,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2745,39 +2489,8 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Gnagspår på  undersida av tallåga/ gren</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gnagspår på  undersida av tallåga/ gren</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2794,10 +2507,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104191418</v>
+        <v>104273411</v>
       </c>
       <c r="B17" t="n">
-        <v>89545</v>
+        <v>88476</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2806,48 +2519,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1503</v>
+        <v>1962</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Foskan , Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>391961.1521349481</v>
+        <v>391862.2822068445</v>
       </c>
       <c r="R17" t="n">
-        <v>6853472.252992332</v>
+        <v>6853552.977110278</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2871,27 +2580,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:17</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga.</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2900,6 +2604,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2918,10 +2623,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104192298</v>
+        <v>104187958</v>
       </c>
       <c r="B18" t="n">
-        <v>90653</v>
+        <v>88476</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2930,32 +2635,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2965,17 +2666,17 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>392037.8766677283</v>
+        <v>392037.6485113045</v>
       </c>
       <c r="R18" t="n">
-        <v>6853590.972109783</v>
+        <v>6853358.163590304</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2999,22 +2700,27 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av bränd stubbe</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -3023,8 +2729,34 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Gles sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -3041,10 +2773,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104206768</v>
+        <v>104187536</v>
       </c>
       <c r="B19" t="n">
-        <v>89851</v>
+        <v>56278</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3057,26 +2789,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5467</v>
+        <v>100011</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Kungsörn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Aquila chrysaetos</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -3084,13 +2829,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>392042.9990587999</v>
+        <v>391981.3108792182</v>
       </c>
       <c r="R19" t="n">
-        <v>6853332.441080549</v>
+        <v>6853630.610055518</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3119,7 +2864,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3129,7 +2874,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3138,7 +2883,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3149,27 +2893,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Brandpåverkad gles tallskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Växer på sidan av lågan, tillsammans med Vaddporing, Smalfotad taggsvamp, Spadskinn och spindelgröppa.</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Växer på sidan av lågan, tillsammans med Vaddporing, Smalfotad taggsvamp, Spadskinn och spindelgröppa.</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3187,10 +2911,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104200957</v>
+        <v>104187826</v>
       </c>
       <c r="B20" t="n">
-        <v>56411</v>
+        <v>90657</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3199,53 +2923,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>4365</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>391936.8088922852</v>
+        <v>392042.9990587999</v>
       </c>
       <c r="R20" t="n">
-        <v>6853511.823290809</v>
+        <v>6853332.441080549</v>
       </c>
       <c r="S20" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3269,22 +2992,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3293,8 +3016,34 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Gles sandtallskog med grov död ved</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3311,7 +3060,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104191186</v>
+        <v>104187843</v>
       </c>
       <c r="B21" t="n">
         <v>88476</v>
@@ -3354,17 +3103,17 @@
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>391933.3680028348</v>
+        <v>392042.9990587999</v>
       </c>
       <c r="R21" t="n">
-        <v>6853477.861368546</v>
+        <v>6853332.441080549</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3388,27 +3137,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Växer på undersidan av bränd stubbe.</t>
+          <t>Växer på undersidan av grov bränd tallåga tillsammans med Spadskinn, Smalfotad taggsvamp, Spindelgröppa</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3417,8 +3166,34 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Gles sandtallskog med grov död ved</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3435,10 +3210,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104189015</v>
+        <v>104187798</v>
       </c>
       <c r="B22" t="n">
-        <v>56540</v>
+        <v>90634</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3447,43 +3222,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>6055</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3491,13 +3261,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>391526.3548266431</v>
+        <v>392042.9990587999</v>
       </c>
       <c r="R22" t="n">
-        <v>6854288.457013912</v>
+        <v>6853332.441080549</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3521,22 +3291,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av grov bränd låga. På samma låga Vaddporing, Smalfotad taggsvamp, Spindelgröppa</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3545,17 +3320,23 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3573,10 +3354,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104214058</v>
+        <v>104192252</v>
       </c>
       <c r="B23" t="n">
-        <v>76486</v>
+        <v>90653</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3585,41 +3366,49 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6487</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan , Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>392113.4903206501</v>
+        <v>392016.9381021889</v>
       </c>
       <c r="R23" t="n">
-        <v>6854171.032923925</v>
+        <v>6853573.177739473</v>
       </c>
       <c r="S23" t="n">
         <v>14</v>
@@ -3646,22 +3435,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:34</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:34</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3688,10 +3477,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104213196</v>
+        <v>104207084</v>
       </c>
       <c r="B24" t="n">
-        <v>89412</v>
+        <v>89659</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3700,32 +3489,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5442</v>
+        <v>71</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Renvall &amp; Niemelä) Audet</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3735,17 +3520,17 @@
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>392308.1561648257</v>
+        <v>392141.4986710215</v>
       </c>
       <c r="R24" t="n">
-        <v>6853867.310341509</v>
+        <v>6853510.577731797</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3769,22 +3554,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3793,8 +3578,39 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Fuktig orörd skogsmiljö nära rinnande vatten och myrkant</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Växer resupinat om ca 45-50 cm på undersidan av tallågan</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Växer resupinat om ca 45-50 cm på undersidan av tallågan</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3811,10 +3627,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104211470</v>
+        <v>104207790</v>
       </c>
       <c r="B25" t="n">
-        <v>88476</v>
+        <v>89317</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3827,21 +3643,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>3242</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3854,17 +3670,17 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>392261.4689191852</v>
+        <v>391976.3500389844</v>
       </c>
       <c r="R25" t="n">
-        <v>6853588.191348016</v>
+        <v>6853548.431869376</v>
       </c>
       <c r="S25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3888,22 +3704,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Växer på undersida av tallåga som vilar på sten.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3912,8 +3733,34 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3930,10 +3777,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104211098</v>
+        <v>104189115</v>
       </c>
       <c r="B26" t="n">
-        <v>78072</v>
+        <v>90653</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3942,48 +3789,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>392252.375127851</v>
+        <v>392057.5668392346</v>
       </c>
       <c r="R26" t="n">
-        <v>6853525.070008218</v>
+        <v>6853373.625348783</v>
       </c>
       <c r="S26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -4007,27 +3858,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:29</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Växer på kolad talltorraka</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4036,8 +3882,19 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Gles sandtallskog</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -4054,10 +3911,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104213367</v>
+        <v>104192418</v>
       </c>
       <c r="B27" t="n">
-        <v>90653</v>
+        <v>88476</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4066,33 +3923,33 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -4101,10 +3958,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>392300.0342229313</v>
+        <v>392087.7206966005</v>
       </c>
       <c r="R27" t="n">
-        <v>6853865.199976915</v>
+        <v>6853593.660263402</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4131,22 +3988,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4173,10 +4030,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104214717</v>
+        <v>104189175</v>
       </c>
       <c r="B28" t="n">
-        <v>88476</v>
+        <v>89356</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4185,28 +4042,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>5447</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -4216,17 +4077,17 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>391972.5816733633</v>
+        <v>391918.3253371663</v>
       </c>
       <c r="R28" t="n">
-        <v>6854180.205627387</v>
+        <v>6853376.59570605</v>
       </c>
       <c r="S28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4250,22 +4111,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4274,8 +4135,34 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Gles sandtallskog med död bränd ved</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -4292,10 +4179,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104216180</v>
+        <v>104207410</v>
       </c>
       <c r="B29" t="n">
-        <v>89356</v>
+        <v>8377</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4308,44 +4195,46 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5447</v>
+        <v>106545</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>391787.8132853629</v>
+        <v>392306.6062552052</v>
       </c>
       <c r="R29" t="n">
-        <v>6853985.908340354</v>
+        <v>6853365.787757014</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4369,22 +4258,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4393,8 +4282,39 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Gnagspår på  undersida av tallåga/ gren</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gnagspår på  undersida av tallåga/ gren</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4411,10 +4331,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104215935</v>
+        <v>104191418</v>
       </c>
       <c r="B30" t="n">
-        <v>77258</v>
+        <v>89545</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4423,42 +4343,48 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6446</v>
+        <v>1503</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Stenlandet O, Dlr</t>
+          <t>Foskan , Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>391854.3030303118</v>
+        <v>391961.1521349481</v>
       </c>
       <c r="R30" t="n">
-        <v>6854020.712626761</v>
+        <v>6853472.252992332</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4482,22 +4408,27 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:56</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:56</t>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4512,19 +4443,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104213443</v>
+        <v>104192298</v>
       </c>
       <c r="B31" t="n">
         <v>90653</v>
@@ -4559,7 +4490,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4575,13 +4506,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>392353.6669490413</v>
+        <v>392037.8766677283</v>
       </c>
       <c r="R31" t="n">
-        <v>6853913.194019943</v>
+        <v>6853590.972109783</v>
       </c>
       <c r="S31" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4605,27 +4536,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:48</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Växer vid gles sandtallskog</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4652,10 +4578,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104213707</v>
+        <v>104206768</v>
       </c>
       <c r="B32" t="n">
-        <v>90645</v>
+        <v>89851</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4668,48 +4594,40 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4361</v>
+        <v>5467</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>392188.1250909853</v>
+        <v>392042.9990587999</v>
       </c>
       <c r="R32" t="n">
-        <v>6854133.672675214</v>
+        <v>6853332.441080549</v>
       </c>
       <c r="S32" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4733,27 +4651,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Växer i gles tallskog nära vatten.</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4762,8 +4675,39 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Brandpåverkad gles tallskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Växer på sidan av lågan, tillsammans med Vaddporing, Smalfotad taggsvamp, Spadskinn och spindelgröppa.</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Växer på sidan av lågan, tillsammans med Vaddporing, Smalfotad taggsvamp, Spadskinn och spindelgröppa.</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4780,10 +4724,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104209621</v>
+        <v>104214058</v>
       </c>
       <c r="B33" t="n">
-        <v>89356</v>
+        <v>76486</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4792,33 +4736,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>6487</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4827,13 +4767,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>391899.7456604107</v>
+        <v>392113.4903206501</v>
       </c>
       <c r="R33" t="n">
-        <v>6853448.637002782</v>
+        <v>6854171.032923925</v>
       </c>
       <c r="S33" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4862,7 +4802,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4872,7 +4812,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4899,10 +4839,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104212666</v>
+        <v>104213196</v>
       </c>
       <c r="B34" t="n">
-        <v>90653</v>
+        <v>89412</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4911,30 +4851,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4950,13 +4890,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>392359.4547307377</v>
+        <v>392308.1561648257</v>
       </c>
       <c r="R34" t="n">
-        <v>6853825.953408375</v>
+        <v>6853867.310341509</v>
       </c>
       <c r="S34" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4985,7 +4925,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4995,12 +4935,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:12</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Stor mängd dropptaggsvamp inom en 5 m radie</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5027,10 +4962,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104210213</v>
+        <v>104211470</v>
       </c>
       <c r="B35" t="n">
-        <v>56395</v>
+        <v>88476</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5043,35 +4978,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5079,13 +5009,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>392067.2463209064</v>
+        <v>392261.4689191852</v>
       </c>
       <c r="R35" t="n">
-        <v>6853530.424606213</v>
+        <v>6853588.191348016</v>
       </c>
       <c r="S35" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -5114,7 +5044,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5124,12 +5054,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:51</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Hackspår på flera granar</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5156,10 +5081,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104214002</v>
+        <v>104211098</v>
       </c>
       <c r="B36" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5172,21 +5097,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -5203,13 +5128,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>392086.3637509735</v>
+        <v>392252.375127851</v>
       </c>
       <c r="R36" t="n">
-        <v>6854182.295864713</v>
+        <v>6853525.070008218</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5238,7 +5163,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5248,7 +5173,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Växer på kolad talltorraka</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5275,10 +5205,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104210136</v>
+        <v>104213367</v>
       </c>
       <c r="B37" t="n">
-        <v>8377</v>
+        <v>90653</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5291,36 +5221,30 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5328,13 +5252,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>392034.5642800587</v>
+        <v>392300.0342229313</v>
       </c>
       <c r="R37" t="n">
-        <v>6853530.9812709</v>
+        <v>6853865.199976915</v>
       </c>
       <c r="S37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5363,7 +5287,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5373,7 +5297,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5400,10 +5324,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104232378</v>
+        <v>104214717</v>
       </c>
       <c r="B38" t="n">
-        <v>78098</v>
+        <v>88476</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5416,40 +5340,44 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Stenlandet O, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>391920.0297059587</v>
+        <v>391972.5816733633</v>
       </c>
       <c r="R38" t="n">
-        <v>6853505.727836582</v>
+        <v>6854180.205627387</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5478,7 +5406,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5488,7 +5416,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5497,29 +5425,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Cecilia Rastad</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104216142</v>
+        <v>104213707</v>
       </c>
       <c r="B39" t="n">
-        <v>89406</v>
+        <v>90645</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5532,24 +5459,28 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1204</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -5563,13 +5494,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>391885.3094462855</v>
+        <v>392188.1250909853</v>
       </c>
       <c r="R39" t="n">
-        <v>6853967.215998732</v>
+        <v>6854133.672675214</v>
       </c>
       <c r="S39" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5598,7 +5529,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5608,7 +5539,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Växer i gles tallskog nära vatten.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5617,34 +5553,8 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>Gles tallskog, fin kontiniutetsskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5661,10 +5571,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104256637</v>
+        <v>104209621</v>
       </c>
       <c r="B40" t="n">
-        <v>77258</v>
+        <v>89356</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5673,42 +5583,48 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6446</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>392148.4708164602</v>
+        <v>391899.7456604107</v>
       </c>
       <c r="R40" t="n">
-        <v>6854078.147395476</v>
+        <v>6853448.637002782</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5732,22 +5648,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5762,22 +5678,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104258996</v>
+        <v>104210213</v>
       </c>
       <c r="B41" t="n">
-        <v>77177</v>
+        <v>56395</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5790,38 +5706,49 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>353</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>391993.1825123047</v>
+        <v>392067.2463209064</v>
       </c>
       <c r="R41" t="n">
-        <v>6853721.558589541</v>
+        <v>6853530.424606213</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5845,22 +5772,27 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Hackspår på flera granar</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5875,22 +5807,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104258978</v>
+        <v>104214002</v>
       </c>
       <c r="B42" t="n">
-        <v>88476</v>
+        <v>78098</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5903,26 +5835,30 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1962</v>
+        <v>6453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5930,13 +5866,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>392067.5877539661</v>
+        <v>392086.3637509735</v>
       </c>
       <c r="R42" t="n">
-        <v>6853676.627905933</v>
+        <v>6854182.295864713</v>
       </c>
       <c r="S42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5960,22 +5896,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6002,10 +5938,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104257272</v>
+        <v>104210136</v>
       </c>
       <c r="B43" t="n">
-        <v>78072</v>
+        <v>8377</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6014,42 +5950,54 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>229821</v>
+        <v>106545</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>392034.565404146</v>
+        <v>392034.5642800587</v>
       </c>
       <c r="R43" t="n">
-        <v>6853936.958570984</v>
+        <v>6853530.9812709</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -6073,22 +6021,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6103,22 +6051,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104258745</v>
+        <v>104216142</v>
       </c>
       <c r="B44" t="n">
-        <v>78072</v>
+        <v>89406</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6131,38 +6079,44 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>229821</v>
+        <v>1204</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>392051.1471639213</v>
+        <v>391885.3094462855</v>
       </c>
       <c r="R44" t="n">
-        <v>6853726.355778391</v>
+        <v>6853967.215998732</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -6186,22 +6140,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6210,28 +6164,54 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Gles tallskog, fin kontiniutetsskog</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>104257075</v>
+        <v>104256637</v>
       </c>
       <c r="B45" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6244,21 +6224,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -6269,10 +6249,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>392048.9671469862</v>
+        <v>392148.4708164602</v>
       </c>
       <c r="R45" t="n">
-        <v>6853972.936160376</v>
+        <v>6854078.147395476</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -6341,10 +6321,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104259774</v>
+        <v>104258996</v>
       </c>
       <c r="B46" t="n">
-        <v>88476</v>
+        <v>77177</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6357,40 +6337,38 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1962</v>
+        <v>353</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>391843.2893125196</v>
+        <v>391993.1825123047</v>
       </c>
       <c r="R46" t="n">
-        <v>6853566.826107106</v>
+        <v>6853721.558589541</v>
       </c>
       <c r="S46" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6419,7 +6397,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6429,7 +6407,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6444,22 +6422,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>104259326</v>
+        <v>104258978</v>
       </c>
       <c r="B47" t="n">
-        <v>77258</v>
+        <v>88476</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6472,38 +6450,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6446</v>
+        <v>1962</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>391972.7754013967</v>
+        <v>392067.5877539661</v>
       </c>
       <c r="R47" t="n">
-        <v>6853510.215733861</v>
+        <v>6853676.627905933</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6532,7 +6512,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6542,7 +6522,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6557,22 +6537,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104252538</v>
+        <v>104257272</v>
       </c>
       <c r="B48" t="n">
-        <v>89659</v>
+        <v>78072</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6581,25 +6561,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>71</v>
+        <v>229821</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6610,10 +6590,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>392350.9450359689</v>
+        <v>392034.565404146</v>
       </c>
       <c r="R48" t="n">
-        <v>6853570.236498819</v>
+        <v>6853936.958570984</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6682,10 +6662,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104256440</v>
+        <v>104258745</v>
       </c>
       <c r="B49" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6698,21 +6678,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6723,10 +6703,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>392167.7411358276</v>
+        <v>392051.1471639213</v>
       </c>
       <c r="R49" t="n">
-        <v>6854133.368172034</v>
+        <v>6853726.355778391</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6795,10 +6775,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>104259202</v>
+        <v>104257075</v>
       </c>
       <c r="B50" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6811,21 +6791,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6836,10 +6816,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>391982.5749705579</v>
+        <v>392048.9671469862</v>
       </c>
       <c r="R50" t="n">
-        <v>6853595.554565503</v>
+        <v>6853972.936160376</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6908,10 +6888,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104257857</v>
+        <v>104259326</v>
       </c>
       <c r="B51" t="n">
-        <v>73693</v>
+        <v>77258</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6924,21 +6904,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6446</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6949,10 +6929,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>392046.1333441656</v>
+        <v>391972.7754013967</v>
       </c>
       <c r="R51" t="n">
-        <v>6853867.988102927</v>
+        <v>6853510.215733861</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -7021,10 +7001,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>104256541</v>
+        <v>104256440</v>
       </c>
       <c r="B52" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -7037,21 +7017,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7062,10 +7042,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>392233.819841642</v>
+        <v>392167.7411358276</v>
       </c>
       <c r="R52" t="n">
-        <v>6854140.27744194</v>
+        <v>6854133.368172034</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -7134,10 +7114,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104257676</v>
+        <v>104259202</v>
       </c>
       <c r="B53" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7150,21 +7130,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -7175,10 +7155,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>392066.8945165311</v>
+        <v>391982.5749705579</v>
       </c>
       <c r="R53" t="n">
-        <v>6853895.249482158</v>
+        <v>6853595.554565503</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -7247,10 +7227,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104252407</v>
+        <v>104257857</v>
       </c>
       <c r="B54" t="n">
-        <v>76909</v>
+        <v>73693</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7263,21 +7243,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6437</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -7288,10 +7268,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>392274.7857013701</v>
+        <v>392046.1333441656</v>
       </c>
       <c r="R54" t="n">
-        <v>6853499.285865317</v>
+        <v>6853867.988102927</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7360,10 +7340,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104257181</v>
+        <v>104256541</v>
       </c>
       <c r="B55" t="n">
-        <v>76486</v>
+        <v>78072</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7376,21 +7356,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6487</v>
+        <v>229821</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7401,10 +7381,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>392032.0001179853</v>
+        <v>392233.819841642</v>
       </c>
       <c r="R55" t="n">
-        <v>6853975.836627239</v>
+        <v>6854140.27744194</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7473,10 +7453,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104257204</v>
+        <v>104257676</v>
       </c>
       <c r="B56" t="n">
-        <v>76909</v>
+        <v>78072</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7489,21 +7469,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6437</v>
+        <v>229821</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7514,10 +7494,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>392032.0001179853</v>
+        <v>392066.8945165311</v>
       </c>
       <c r="R56" t="n">
-        <v>6853975.836627239</v>
+        <v>6853895.249482158</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7586,10 +7566,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104257332</v>
+        <v>104252407</v>
       </c>
       <c r="B57" t="n">
-        <v>78098</v>
+        <v>76909</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7602,21 +7582,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7627,10 +7607,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>392064.7807965787</v>
+        <v>392274.7857013701</v>
       </c>
       <c r="R57" t="n">
-        <v>6853903.359537199</v>
+        <v>6853499.285865317</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7699,10 +7679,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104256778</v>
+        <v>104257181</v>
       </c>
       <c r="B58" t="n">
-        <v>56540</v>
+        <v>76486</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7715,21 +7695,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>103021</v>
+        <v>6487</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7740,10 +7720,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>392110.6610185249</v>
+        <v>392032.0001179853</v>
       </c>
       <c r="R58" t="n">
-        <v>6854006.004012057</v>
+        <v>6853975.836627239</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7812,10 +7792,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>104252165</v>
+        <v>104257204</v>
       </c>
       <c r="B59" t="n">
-        <v>81236</v>
+        <v>76909</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7828,21 +7808,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1312</v>
+        <v>6437</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7853,10 +7833,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>392092.6630104178</v>
+        <v>392032.0001179853</v>
       </c>
       <c r="R59" t="n">
-        <v>6853524.891955593</v>
+        <v>6853975.836627239</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7925,10 +7905,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104252121</v>
+        <v>104257332</v>
       </c>
       <c r="B60" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7941,21 +7921,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7966,10 +7946,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>392080.6514764168</v>
+        <v>392064.7807965787</v>
       </c>
       <c r="R60" t="n">
-        <v>6853534.734223102</v>
+        <v>6853903.359537199</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -8038,10 +8018,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>104257831</v>
+        <v>104256778</v>
       </c>
       <c r="B61" t="n">
-        <v>90634</v>
+        <v>56540</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -8050,52 +8030,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6055</v>
+        <v>103021</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>392073.5996060318</v>
+        <v>392110.6610185249</v>
       </c>
       <c r="R61" t="n">
-        <v>6853912.544507368</v>
+        <v>6854006.004012057</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -8124,7 +8094,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -8134,12 +8104,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:56</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av övertorvad kolad tallstubbe</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8154,22 +8119,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>104250258</v>
+        <v>104252165</v>
       </c>
       <c r="B62" t="n">
-        <v>89633</v>
+        <v>81236</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -8178,48 +8143,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>65</v>
+        <v>1312</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>392104.7696051875</v>
+        <v>392092.6630104178</v>
       </c>
       <c r="R62" t="n">
-        <v>6854059.652752588</v>
+        <v>6853524.891955593</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8243,22 +8202,22 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8267,59 +8226,28 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI62" t="inlineStr">
-        <is>
-          <t>Brandpräglad sandbarrkog</t>
-        </is>
-      </c>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK62" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL62" t="inlineStr">
-        <is>
-          <t>Växer på undersida av tallåga</t>
-        </is>
-      </c>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Växer på undersida av tallåga</t>
-        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104256959</v>
+        <v>104252121</v>
       </c>
       <c r="B63" t="n">
-        <v>90841</v>
+        <v>77506</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8332,21 +8260,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8357,10 +8285,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>392071.9423822066</v>
+        <v>392080.6514764168</v>
       </c>
       <c r="R63" t="n">
-        <v>6853980.255388353</v>
+        <v>6853534.734223102</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8429,10 +8357,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104258601</v>
+        <v>104257831</v>
       </c>
       <c r="B64" t="n">
-        <v>89545</v>
+        <v>90634</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8445,38 +8373,48 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1503</v>
+        <v>6055</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>(S.Lundell) D.A.Reid</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>392095.7699003418</v>
+        <v>392073.5996060318</v>
       </c>
       <c r="R64" t="n">
-        <v>6853743.876496158</v>
+        <v>6853912.544507368</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8505,7 +8443,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8515,7 +8453,12 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:56</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av övertorvad kolad tallstubbe</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8530,22 +8473,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>104257853</v>
+        <v>104250258</v>
       </c>
       <c r="B65" t="n">
-        <v>81236</v>
+        <v>89633</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8554,42 +8497,48 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1312</v>
+        <v>65</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>392046.1333441656</v>
+        <v>392104.7696051875</v>
       </c>
       <c r="R65" t="n">
-        <v>6853867.988102927</v>
+        <v>6854059.652752588</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8613,22 +8562,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8637,28 +8586,59 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>Brandpräglad sandbarrkog</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>Växer på undersida av tallåga</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Växer på undersida av tallåga</t>
+        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104255481</v>
+        <v>104256959</v>
       </c>
       <c r="B66" t="n">
-        <v>89412</v>
+        <v>90841</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8671,21 +8651,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5442</v>
+        <v>2079</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8696,10 +8676,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>392272.912462361</v>
+        <v>392071.9423822066</v>
       </c>
       <c r="R66" t="n">
-        <v>6854117.757631293</v>
+        <v>6853980.255388353</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8768,10 +8748,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>104258146</v>
+        <v>104258601</v>
       </c>
       <c r="B67" t="n">
-        <v>77506</v>
+        <v>89545</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8780,44 +8760,42 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>1503</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>392001.7048582154</v>
+        <v>392095.7699003418</v>
       </c>
       <c r="R67" t="n">
-        <v>6853916.703191284</v>
+        <v>6853743.876496158</v>
       </c>
       <c r="S67" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8846,7 +8824,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8856,7 +8834,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8871,22 +8849,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>104259656</v>
+        <v>104257853</v>
       </c>
       <c r="B68" t="n">
-        <v>88476</v>
+        <v>81236</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8899,44 +8877,38 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1962</v>
+        <v>1312</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>391837.9406872072</v>
+        <v>392046.1333441656</v>
       </c>
       <c r="R68" t="n">
-        <v>6853592.547251418</v>
+        <v>6853867.988102927</v>
       </c>
       <c r="S68" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8965,7 +8937,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8975,7 +8947,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8990,22 +8962,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>104256527</v>
+        <v>104255481</v>
       </c>
       <c r="B69" t="n">
-        <v>90699</v>
+        <v>89412</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -9014,52 +8986,42 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>232140</v>
+        <v>5442</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Foskan , Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>392164.1746783024</v>
+        <v>392272.912462361</v>
       </c>
       <c r="R69" t="n">
-        <v>6854125.437567616</v>
+        <v>6854117.757631293</v>
       </c>
       <c r="S69" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -9088,7 +9050,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -9098,7 +9060,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -9113,22 +9075,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>104256526</v>
+        <v>104258146</v>
       </c>
       <c r="B70" t="n">
-        <v>90841</v>
+        <v>77506</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -9141,38 +9103,40 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>392233.819841642</v>
+        <v>392001.7048582154</v>
       </c>
       <c r="R70" t="n">
-        <v>6854140.27744194</v>
+        <v>6853916.703191284</v>
       </c>
       <c r="S70" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -9201,7 +9165,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -9211,7 +9175,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -9226,22 +9190,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>104259849</v>
+        <v>104256527</v>
       </c>
       <c r="B71" t="n">
-        <v>73693</v>
+        <v>90699</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9250,42 +9214,52 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6440</v>
+        <v>232140</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>Niemelä &amp; Kinnunen</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan , Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>391710.483187682</v>
+        <v>392164.1746783024</v>
       </c>
       <c r="R71" t="n">
-        <v>6853638.214409604</v>
+        <v>6854125.437567616</v>
       </c>
       <c r="S71" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -9314,7 +9288,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -9324,7 +9298,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9339,22 +9313,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>104258694</v>
+        <v>104256526</v>
       </c>
       <c r="B72" t="n">
-        <v>88476</v>
+        <v>90841</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9367,21 +9341,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1962</v>
+        <v>2079</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9392,10 +9366,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>392098.0743048845</v>
+        <v>392233.819841642</v>
       </c>
       <c r="R72" t="n">
-        <v>6853726.769921213</v>
+        <v>6854140.27744194</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -9464,10 +9438,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>104250278</v>
+        <v>104258694</v>
       </c>
       <c r="B73" t="n">
-        <v>89545</v>
+        <v>88476</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9476,48 +9450,42 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1503</v>
+        <v>1962</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>392095.3971512471</v>
+        <v>392098.0743048845</v>
       </c>
       <c r="R73" t="n">
-        <v>6854017.839930529</v>
+        <v>6853726.769921213</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9541,22 +9509,22 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9565,59 +9533,28 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
-      </c>
-      <c r="AH73" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI73" t="inlineStr">
-        <is>
-          <t>Brandpräglad sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ73" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK73" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL73" t="inlineStr">
-        <is>
-          <t>Växer på murken tallåga</t>
-        </is>
-      </c>
-      <c r="AO73" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Växer på murken tallåga</t>
-        </is>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>104259279</v>
+        <v>104250278</v>
       </c>
       <c r="B74" t="n">
-        <v>77177</v>
+        <v>89545</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9626,42 +9563,48 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>353</v>
+        <v>1503</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Älvrosfjorden, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>391966.9039335594</v>
+        <v>392095.3971512471</v>
       </c>
       <c r="R74" t="n">
-        <v>6853519.391648704</v>
+        <v>6854017.839930529</v>
       </c>
       <c r="S74" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9685,22 +9628,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9709,28 +9652,59 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>Brandpräglad sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>Växer på murken tallåga</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Växer på murken tallåga</t>
+        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>104256739</v>
+        <v>104259279</v>
       </c>
       <c r="B75" t="n">
-        <v>78072</v>
+        <v>77177</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9743,21 +9717,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>229821</v>
+        <v>353</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9768,10 +9742,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>392114.2009908436</v>
+        <v>391966.9039335594</v>
       </c>
       <c r="R75" t="n">
-        <v>6854028.129492943</v>
+        <v>6853519.391648704</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9840,10 +9814,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>104258372</v>
+        <v>104256739</v>
       </c>
       <c r="B76" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9856,44 +9830,38 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>392029.456991078</v>
+        <v>392114.2009908436</v>
       </c>
       <c r="R76" t="n">
-        <v>6853850.060884178</v>
+        <v>6854028.129492943</v>
       </c>
       <c r="S76" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9922,7 +9890,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9932,7 +9900,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9947,22 +9915,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>104252168</v>
+        <v>104258372</v>
       </c>
       <c r="B77" t="n">
-        <v>73680</v>
+        <v>78098</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9971,42 +9939,48 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>306</v>
+        <v>6453</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Älvdalen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>392092.6630104178</v>
+        <v>392029.456991078</v>
       </c>
       <c r="R77" t="n">
-        <v>6853524.891955593</v>
+        <v>6853850.060884178</v>
       </c>
       <c r="S77" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -10035,7 +10009,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -10045,7 +10019,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -10060,22 +10034,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>104257298</v>
+        <v>104252168</v>
       </c>
       <c r="B78" t="n">
-        <v>88476</v>
+        <v>73680</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -10084,48 +10058,42 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1962</v>
+        <v>306</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Foskan, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>392086.2415359593</v>
+        <v>392092.6630104178</v>
       </c>
       <c r="R78" t="n">
-        <v>6853952.836168764</v>
+        <v>6853524.891955593</v>
       </c>
       <c r="S78" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -10154,7 +10122,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -10164,7 +10132,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -10179,22 +10147,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>104273416</v>
+        <v>104257298</v>
       </c>
       <c r="B79" t="n">
-        <v>89323</v>
+        <v>88476</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -10203,25 +10171,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2013</v>
+        <v>1962</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kolticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Griseoporia carbonaria</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis) Ginns</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -10234,17 +10202,17 @@
       <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Foskan, Älvrosfjorden, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>392328.5815062374</v>
+        <v>392086.2415359593</v>
       </c>
       <c r="R79" t="n">
-        <v>6853280.863770633</v>
+        <v>6853952.836168764</v>
       </c>
       <c r="S79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -10268,27 +10236,22 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av gammal grov kolad ved. Flertalet fruktkroppar.</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -10297,39 +10260,8 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI79" t="inlineStr">
-        <is>
-          <t>Skogbevuxen myrholme med gamla tallar och en del gamla kolade lågor.</t>
-        </is>
-      </c>
-      <c r="AJ79" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL79" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av gammal grov kolad låga i fin kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Växer på undersidan av gammal grov kolad låga i fin kontinuitetsskog</t>
-        </is>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
@@ -10346,10 +10278,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>104273411</v>
+        <v>104273416</v>
       </c>
       <c r="B80" t="n">
-        <v>88476</v>
+        <v>89323</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -10358,29 +10290,33 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1962</v>
+        <v>2013</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Kolticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Griseoporia carbonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Berk. &amp; M.A.Curtis) Ginns</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
@@ -10389,10 +10325,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>391862.2822068445</v>
+        <v>392328.5815062374</v>
       </c>
       <c r="R80" t="n">
-        <v>6853552.977110278</v>
+        <v>6853280.863770633</v>
       </c>
       <c r="S80" t="n">
         <v>5</v>
@@ -10419,22 +10355,27 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av gammal grov kolad ved. Flertalet fruktkroppar.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10446,6 +10387,36 @@
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>Skogbevuxen myrholme med gamla tallar och en del gamla kolade lågor.</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av gammal grov kolad låga i fin kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Växer på undersidan av gammal grov kolad låga i fin kontinuitetsskog</t>
+        </is>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
@@ -11697,10 +11668,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>104472901</v>
+        <v>104472842</v>
       </c>
       <c r="B91" t="n">
-        <v>77177</v>
+        <v>89832</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11709,25 +11680,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>353</v>
+        <v>1209</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11736,14 +11707,14 @@
       <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Storhömyrtjärnen, Dlr</t>
+          <t>NV Ringbo, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>391623.3432130276</v>
+        <v>392051.9396714639</v>
       </c>
       <c r="R91" t="n">
-        <v>6854283.967131451</v>
+        <v>6853420.650753859</v>
       </c>
       <c r="S91" t="n">
         <v>1</v>
@@ -11813,10 +11784,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104472899</v>
+        <v>104213443</v>
       </c>
       <c r="B92" t="n">
-        <v>90657</v>
+        <v>90653</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11825,44 +11796,52 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Storhömyrtjärnen, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>391623.3432130276</v>
+        <v>392353.6669490413</v>
       </c>
       <c r="R92" t="n">
-        <v>6854283.967131451</v>
+        <v>6853913.194019943</v>
       </c>
       <c r="S92" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -11886,22 +11865,27 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>Växer vid gles sandtallskog</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11910,29 +11894,28 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
-      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson, Lennart Bratt</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>104472842</v>
+        <v>104212666</v>
       </c>
       <c r="B93" t="n">
-        <v>89832</v>
+        <v>90653</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11941,44 +11924,52 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1209</v>
+        <v>4364</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>NV Ringbo, Dlr</t>
+          <t>Foskan, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>392051.9396714639</v>
+        <v>392359.4547307377</v>
       </c>
       <c r="R93" t="n">
-        <v>6853420.650753859</v>
+        <v>6853825.953408375</v>
       </c>
       <c r="S93" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -12002,22 +11993,27 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Stor mängd dropptaggsvamp inom en 5 m radie</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -12026,29 +12022,28 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson, Lennart Bratt</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>104472909</v>
+        <v>104252538</v>
       </c>
       <c r="B94" t="n">
-        <v>90653</v>
+        <v>89659</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -12057,44 +12052,42 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4364</v>
+        <v>71</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Storhömyrtjärnen, Dlr</t>
+          <t>Älvdalen, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>391623.6282373069</v>
+        <v>392350.9450359689</v>
       </c>
       <c r="R94" t="n">
-        <v>6854337.890586959</v>
+        <v>6853570.236498819</v>
       </c>
       <c r="S94" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -12118,7 +12111,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -12128,7 +12121,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -12142,29 +12135,28 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson, Lennart Bratt</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>104472889</v>
+        <v>104155580</v>
       </c>
       <c r="B95" t="n">
-        <v>90699</v>
+        <v>89545</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -12177,40 +12169,44 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>232140</v>
+        <v>1503</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Storhömyrtjärnen, Dlr</t>
+          <t>Ringbo, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>391623.3432130276</v>
+        <v>392056.0855057952</v>
       </c>
       <c r="R95" t="n">
-        <v>6854283.967131451</v>
+        <v>6853010.695967026</v>
       </c>
       <c r="S95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -12234,22 +12230,27 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:44</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Växer under grov tallåga i fin naturskog</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -12258,19 +12259,18 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson, Lennart Bratt</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
